--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.336273419125883</v>
+        <v>-0.2756402713126743</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.637370547208314</v>
+        <v>-2.374117485207998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.836300231175398</v>
+        <v>-4.813022329376255</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.646007128617365</v>
+        <v>5.450110896417276</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.227245177273116</v>
+        <v>3.675798176233965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6827582671636139</v>
+        <v>0.3299123410273359</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.03845106213256638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.6228618475578259</v>
+        <v>-0.6228618475578258</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08595491002865643</v>
+        <v>-0.04855983890095682</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4957866222623614</v>
+        <v>-0.474456998756683</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9176781873888479</v>
+        <v>-0.9072754907840964</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.782808998351991</v>
+        <v>1.807177246349997</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.093366687951298</v>
+        <v>1.248786391316785</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3972336975427701</v>
+        <v>0.2568941204175002</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-2.376139696081458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.308687493136277</v>
+        <v>-6.308687493136275</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6523786898163002</v>
+        <v>-0.7038585954610364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.190521633584417</v>
+        <v>-4.156450481487389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.945642684828258</v>
+        <v>-8.288777319201323</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.498485274828033</v>
+        <v>3.850505791084248</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5868417014631788</v>
+        <v>-0.4568857379652853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.494978323633076</v>
+        <v>-4.765780977176768</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.2650656608636215</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.7037534124394783</v>
+        <v>-0.7037534124394781</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06869914516461474</v>
+        <v>-0.07116199052136409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4176321332547768</v>
+        <v>-0.4173783008417357</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7947019151375778</v>
+        <v>-0.7976018831069352</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4370702139998803</v>
+        <v>0.4835601362922894</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06580235779626406</v>
+        <v>-0.05908534666524232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5725105464904217</v>
+        <v>-0.5796802280594432</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.997136839532061</v>
+        <v>-8.792091595951659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.54681185420029</v>
+        <v>-11.32444516156983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.75542704084735</v>
+        <v>-14.38063996829222</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2774503268310407</v>
+        <v>0.4583262702776935</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.24165318555262</v>
+        <v>-3.655569610635069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.735322624352529</v>
+        <v>-6.737236548588556</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5322296942003144</v>
+        <v>-0.5441483081221586</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6866534823198245</v>
+        <v>-0.6730077909686447</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8519596068614907</v>
+        <v>-0.8509804287465184</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02687093587991418</v>
+        <v>0.04030010721990404</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.261912808091617</v>
+        <v>-0.2917330105585572</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5642858857238836</v>
+        <v>-0.5564848031941799</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.174315312299135</v>
+        <v>-0.8995739114095955</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.182427223182797</v>
+        <v>-4.105421040495532</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.441055694856525</v>
+        <v>-7.504425322969019</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.358523795291415</v>
+        <v>2.435143815226309</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.09147798188514</v>
+        <v>-1.016911108317776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.599336060747353</v>
+        <v>-4.649742555826113</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.120045640304411</v>
+        <v>-0.09461687239424978</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4198097162174014</v>
+        <v>-0.4147278028923546</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7538826335822422</v>
+        <v>-0.763676319954729</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2843524655088279</v>
+        <v>0.2932559141726609</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1280052053459868</v>
+        <v>-0.1197431745298784</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5657038429417789</v>
+        <v>-0.5791212640940742</v>
       </c>
     </row>
     <row r="28">
